--- a/01_data-input/wiiw/wages1.xlsx
+++ b/01_data-input/wiiw/wages1.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D4F9BB-42AD-40EE-BD26-A7FB32A7F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="44">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -152,55 +158,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,43 +203,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -534,59 +530,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.96" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.24" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.495605" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.827358" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="26" customWidth="true" style="0"/>
-    <col min="6" max="6" width="49.326451" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8" customWidth="true" style="0"/>
-    <col min="15" max="15" width="8" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8" customWidth="true" style="0"/>
-    <col min="17" max="17" width="8" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8" customWidth="true" style="0"/>
-    <col min="19" max="19" width="8" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8" customWidth="true" style="0"/>
-    <col min="22" max="22" width="8" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" customWidth="true" style="0"/>
-    <col min="25" max="25" width="8" customWidth="true" style="0"/>
-    <col min="26" max="26" width="8" customWidth="true" style="0"/>
-    <col min="27" max="27" width="8" customWidth="true" style="0"/>
-    <col min="28" max="28" width="8" customWidth="true" style="0"/>
-    <col min="29" max="29" width="8" customWidth="true" style="0"/>
-    <col min="30" max="30" width="8" customWidth="true" style="0"/>
-    <col min="31" max="31" width="8" customWidth="true" style="0"/>
-    <col min="32" max="32" width="8" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.5" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="32" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -602,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -610,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -618,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -713,7 +681,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +776,7 @@
         <v>52380</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -831,16 +799,16 @@
         <v>61.5061331</v>
       </c>
       <c r="H9" s="3">
-        <v>70.755402</v>
+        <v>70.755402000000004</v>
       </c>
       <c r="I9" s="3">
-        <v>53.9525303</v>
+        <v>53.952530299999999</v>
       </c>
       <c r="J9" s="3">
-        <v>64.5210964</v>
+        <v>64.521096400000005</v>
       </c>
       <c r="K9" s="3">
-        <v>82.4578116</v>
+        <v>82.457811599999999</v>
       </c>
       <c r="L9" s="3">
         <v>100.7316337</v>
@@ -849,40 +817,40 @@
         <v>115.3576711</v>
       </c>
       <c r="N9" s="3">
-        <v>124.9697794</v>
+        <v>124.96977939999999</v>
       </c>
       <c r="O9" s="3">
-        <v>134.6956585</v>
+        <v>134.69565850000001</v>
       </c>
       <c r="P9" s="3">
-        <v>149.1266547</v>
+        <v>149.12665469999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>160.987197</v>
+        <v>160.98719700000001</v>
       </c>
       <c r="R9" s="3">
-        <v>177.4618135</v>
+        <v>177.46181350000001</v>
       </c>
       <c r="S9" s="3">
-        <v>221.2246219</v>
+        <v>221.22462189999999</v>
       </c>
       <c r="T9" s="3">
-        <v>279.1286645</v>
+        <v>279.12866450000001</v>
       </c>
       <c r="U9" s="3">
-        <v>273.1712858</v>
+        <v>273.17128580000002</v>
       </c>
       <c r="V9" s="3">
-        <v>252.3187459</v>
+        <v>252.31874590000001</v>
       </c>
       <c r="W9" s="3">
-        <v>259.972921</v>
+        <v>259.97292099999999</v>
       </c>
       <c r="X9" s="3">
         <v>269.9510932</v>
       </c>
       <c r="Y9" s="3">
-        <v>259.033224</v>
+        <v>259.03322400000002</v>
       </c>
       <c r="Z9" s="3">
         <v>325.3482889</v>
@@ -891,19 +859,19 @@
         <v>342.7794475</v>
       </c>
       <c r="AB9" s="3">
-        <v>345.9668026</v>
+        <v>345.96680259999999</v>
       </c>
       <c r="AC9" s="3">
-        <v>365.0167723</v>
+        <v>365.01677230000001</v>
       </c>
       <c r="AD9" s="3">
-        <v>396.4965906</v>
+        <v>396.49659059999999</v>
       </c>
       <c r="AE9" s="3">
         <v>425.8190391</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -965,13 +933,13 @@
         <v>1113</v>
       </c>
       <c r="U10" s="3">
-        <v>1203.6</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="V10" s="3">
-        <v>1216.6</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="W10" s="3">
-        <v>1270.6</v>
+        <v>1270.5999999999999</v>
       </c>
       <c r="X10" s="3">
         <v>1290.2</v>
@@ -983,7 +951,7 @@
         <v>1289.5</v>
       </c>
       <c r="AA10" s="3">
-        <v>1289.1</v>
+        <v>1289.0999999999999</v>
       </c>
       <c r="AB10" s="3">
         <v>1300.7</v>
@@ -998,7 +966,7 @@
         <v>1421.3</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1033,67 +1001,67 @@
         <v>257.1798162</v>
       </c>
       <c r="L11" s="3">
-        <v>275.586324</v>
+        <v>275.58632399999999</v>
       </c>
       <c r="M11" s="3">
         <v>305.752545</v>
       </c>
       <c r="N11" s="3">
-        <v>337.4526416</v>
+        <v>337.45264159999999</v>
       </c>
       <c r="O11" s="3">
-        <v>366.5962788</v>
+        <v>366.59627879999999</v>
       </c>
       <c r="P11" s="3">
-        <v>382.4463271</v>
+        <v>382.44632710000002</v>
       </c>
       <c r="Q11" s="3">
-        <v>405.4544618</v>
+        <v>405.45446179999999</v>
       </c>
       <c r="R11" s="3">
-        <v>444.108128</v>
+        <v>444.10812800000002</v>
       </c>
       <c r="S11" s="3">
-        <v>487.7213255</v>
+        <v>487.72132549999998</v>
       </c>
       <c r="T11" s="3">
-        <v>569.0678638000001</v>
+        <v>569.06786380000005</v>
       </c>
       <c r="U11" s="3">
-        <v>615.3909082</v>
+        <v>615.39090820000001</v>
       </c>
       <c r="V11" s="3">
-        <v>622.0377027</v>
+        <v>622.03770269999995</v>
       </c>
       <c r="W11" s="3">
-        <v>649.6474641999999</v>
+        <v>649.64746419999994</v>
       </c>
       <c r="X11" s="3">
-        <v>659.6687851</v>
+        <v>659.66878510000004</v>
       </c>
       <c r="Y11" s="3">
-        <v>660.2312062</v>
+        <v>660.23120619999997</v>
       </c>
       <c r="Z11" s="3">
-        <v>659.3108807999999</v>
+        <v>659.31088079999995</v>
       </c>
       <c r="AA11" s="3">
-        <v>659.1063641</v>
+        <v>659.10636409999995</v>
       </c>
       <c r="AB11" s="3">
-        <v>665.0373499</v>
+        <v>665.03734989999998</v>
       </c>
       <c r="AC11" s="3">
-        <v>675.5699626000001</v>
+        <v>675.56996260000005</v>
       </c>
       <c r="AD11" s="3">
-        <v>696.6863173</v>
+        <v>696.68631730000004</v>
       </c>
       <c r="AE11" s="3">
-        <v>726.6991507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+        <v>726.69915070000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1156,7 @@
         <v>920.9</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1220,13 +1188,13 @@
         <v>150.1014199</v>
       </c>
       <c r="K13" s="3">
-        <v>175.3731153</v>
+        <v>175.37311529999999</v>
       </c>
       <c r="L13" s="3">
-        <v>190.2005798</v>
+        <v>190.20057980000001</v>
       </c>
       <c r="M13" s="3">
-        <v>209.1183794</v>
+        <v>209.11837940000001</v>
       </c>
       <c r="N13" s="3">
         <v>228.036179</v>
@@ -1235,31 +1203,31 @@
         <v>247.4652705</v>
       </c>
       <c r="P13" s="3">
-        <v>258.2024</v>
+        <v>258.20240000000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>273.5411564</v>
+        <v>273.54115639999998</v>
       </c>
       <c r="R13" s="3">
-        <v>299.3613964</v>
+        <v>299.36139639999999</v>
       </c>
       <c r="S13" s="3">
         <v>329.5276174</v>
       </c>
       <c r="T13" s="3">
-        <v>384.1335903</v>
+        <v>384.13359029999998</v>
       </c>
       <c r="U13" s="3">
-        <v>403.9717153</v>
+        <v>403.97171530000003</v>
       </c>
       <c r="V13" s="3">
-        <v>408.1643088</v>
+        <v>408.16430880000001</v>
       </c>
       <c r="W13" s="3">
-        <v>417.1630459</v>
+        <v>417.16304589999999</v>
       </c>
       <c r="X13" s="3">
-        <v>422.3270939</v>
+        <v>422.32709390000002</v>
       </c>
       <c r="Y13" s="3">
         <v>422.8383857</v>
@@ -1268,22 +1236,22 @@
         <v>424.6790365</v>
       </c>
       <c r="AA13" s="3">
-        <v>424.5000844</v>
+        <v>424.50008439999999</v>
       </c>
       <c r="AB13" s="3">
-        <v>428.4114673</v>
+        <v>428.41146730000003</v>
       </c>
       <c r="AC13" s="3">
         <v>435.0582617</v>
       </c>
       <c r="AD13" s="3">
-        <v>449.3233052</v>
+        <v>449.32330519999999</v>
       </c>
       <c r="AE13" s="3">
         <v>470.8486934</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1346,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1441,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1536,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1663,7 +1631,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="3">
-        <v>143.2</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="H18" s="3">
         <v>187.1</v>
@@ -1695,13 +1663,13 @@
         <v>250.4</v>
       </c>
       <c r="K18" s="3">
-        <v>304.6</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="L18" s="3">
         <v>407.9</v>
       </c>
       <c r="M18" s="3">
-        <v>543.7</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="N18" s="3">
         <v>691.5</v>
@@ -1710,7 +1678,7 @@
         <v>890.8</v>
       </c>
       <c r="P18" s="3">
-        <v>1103.1</v>
+        <v>1103.0999999999999</v>
       </c>
       <c r="Q18" s="3">
         <v>1318.7</v>
@@ -1722,7 +1690,7 @@
         <v>2065</v>
       </c>
       <c r="T18" s="3">
-        <v>2529.7</v>
+        <v>2529.6999999999998</v>
       </c>
       <c r="U18" s="3">
         <v>2747.6</v>
@@ -1743,7 +1711,7 @@
         <v>4089.7</v>
       </c>
       <c r="AA18" s="3">
-        <v>4538.4</v>
+        <v>4538.3999999999996</v>
       </c>
       <c r="AB18" s="3">
         <v>4997.8</v>
@@ -1758,7 +1726,7 @@
         <v>7233.7</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1778,37 +1746,37 @@
         <v>40</v>
       </c>
       <c r="G19" s="3">
-        <v>24.3534698</v>
+        <v>24.353469799999999</v>
       </c>
       <c r="H19" s="3">
-        <v>32.0158752</v>
+        <v>32.015875200000004</v>
       </c>
       <c r="I19" s="3">
-        <v>41.9249008</v>
+        <v>41.924900800000003</v>
       </c>
       <c r="J19" s="3">
-        <v>41.5727213</v>
+        <v>41.572721299999998</v>
       </c>
       <c r="K19" s="3">
-        <v>27.2122214</v>
+        <v>27.212221400000001</v>
       </c>
       <c r="L19" s="3">
-        <v>35.486537</v>
+        <v>35.486536999999998</v>
       </c>
       <c r="M19" s="3">
-        <v>47.1802081</v>
+        <v>47.180208100000002</v>
       </c>
       <c r="N19" s="3">
-        <v>53.8815774</v>
+        <v>53.881577399999998</v>
       </c>
       <c r="O19" s="3">
         <v>56.5935846</v>
       </c>
       <c r="P19" s="3">
-        <v>71.96351919999999</v>
+        <v>71.963519199999993</v>
       </c>
       <c r="Q19" s="3">
-        <v>84.005402</v>
+        <v>84.005402000000004</v>
       </c>
       <c r="R19" s="3">
         <v>102.9056865</v>
@@ -1817,43 +1785,43 @@
         <v>124.4080826</v>
       </c>
       <c r="T19" s="3">
-        <v>165.430694</v>
+        <v>165.43069399999999</v>
       </c>
       <c r="U19" s="3">
         <v>176.981346</v>
       </c>
       <c r="V19" s="3">
-        <v>181.2067441</v>
+        <v>181.20674410000001</v>
       </c>
       <c r="W19" s="3">
         <v>186.2164793</v>
       </c>
       <c r="X19" s="3">
-        <v>217.577362</v>
+        <v>217.57736199999999</v>
       </c>
       <c r="Y19" s="3">
-        <v>219.6949313</v>
+        <v>219.69493130000001</v>
       </c>
       <c r="Z19" s="3">
-        <v>219.4975338</v>
+        <v>219.49753380000001</v>
       </c>
       <c r="AA19" s="3">
-        <v>217.1686003</v>
+        <v>217.16860030000001</v>
       </c>
       <c r="AB19" s="3">
         <v>226.6082667</v>
       </c>
       <c r="AC19" s="3">
-        <v>268.2612996</v>
+        <v>268.26129959999997</v>
       </c>
       <c r="AD19" s="3">
-        <v>315.8605537</v>
+        <v>315.86055370000003</v>
       </c>
       <c r="AE19" s="3">
-        <v>367.6762851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
+        <v>367.67628509999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1939,16 +1907,16 @@
         <v>4102.8</v>
       </c>
       <c r="AC20" s="3">
-        <v>4563.9</v>
+        <v>4563.8999999999996</v>
       </c>
       <c r="AD20" s="3">
-        <v>5141.9</v>
+        <v>5141.8999999999996</v>
       </c>
       <c r="AE20" s="3">
         <v>6010.1</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2016,34 +1984,34 @@
         <v>27</v>
       </c>
       <c r="W21" s="3">
-        <v>156.3087244</v>
+        <v>156.30872439999999</v>
       </c>
       <c r="X21" s="3">
         <v>182.0126966</v>
       </c>
       <c r="Y21" s="3">
-        <v>183.6989733</v>
+        <v>183.69897330000001</v>
       </c>
       <c r="Z21" s="3">
-        <v>182.4217345</v>
+        <v>182.42173450000001</v>
       </c>
       <c r="AA21" s="3">
         <v>179.5191523</v>
       </c>
       <c r="AB21" s="3">
-        <v>186.0275314</v>
+        <v>186.02753139999999</v>
       </c>
       <c r="AC21" s="3">
-        <v>219.1211915</v>
+        <v>219.12119150000001</v>
       </c>
       <c r="AD21" s="3">
-        <v>259.1134941</v>
+        <v>259.11349410000003</v>
       </c>
       <c r="AE21" s="3">
-        <v>305.4828429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
+        <v>305.48284289999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -2051,26 +2019,1150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A415CE-E393-4294-A516-270706A1BD15}">
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13355</v>
+      </c>
+      <c r="F2" s="3">
+        <v>14820</v>
+      </c>
+      <c r="G2" s="3">
+        <v>16541</v>
+      </c>
+      <c r="H2" s="3">
+        <v>18522</v>
+      </c>
+      <c r="I2" s="3">
+        <v>19039</v>
+      </c>
+      <c r="J2" s="3">
+        <v>19993</v>
+      </c>
+      <c r="K2" s="3">
+        <v>21842</v>
+      </c>
+      <c r="L2" s="3">
+        <v>27350</v>
+      </c>
+      <c r="M2" s="3">
+        <v>34277</v>
+      </c>
+      <c r="N2" s="3">
+        <v>36075</v>
+      </c>
+      <c r="O2" s="3">
+        <v>34767</v>
+      </c>
+      <c r="P2" s="3">
+        <v>36482</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>37534</v>
+      </c>
+      <c r="R2" s="3">
+        <v>36332</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45539</v>
+      </c>
+      <c r="T2" s="3">
+        <v>47900</v>
+      </c>
+      <c r="U2" s="3">
+        <v>47522</v>
+      </c>
+      <c r="V2" s="3">
+        <v>48967</v>
+      </c>
+      <c r="W2" s="3">
+        <v>50589</v>
+      </c>
+      <c r="X2" s="3">
+        <v>52380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100.7316337</v>
+      </c>
+      <c r="F3" s="3">
+        <v>115.3576711</v>
+      </c>
+      <c r="G3" s="3">
+        <v>124.96977939999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>134.69565850000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>149.12665469999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>160.98719700000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>177.46181350000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>221.22462189999999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>279.12866450000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>273.17128580000002</v>
+      </c>
+      <c r="O3" s="3">
+        <v>252.31874590000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>259.97292099999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>269.9510932</v>
+      </c>
+      <c r="R3" s="3">
+        <v>259.03322400000002</v>
+      </c>
+      <c r="S3" s="3">
+        <v>325.3482889</v>
+      </c>
+      <c r="T3" s="3">
+        <v>342.7794475</v>
+      </c>
+      <c r="U3" s="3">
+        <v>345.96680259999999</v>
+      </c>
+      <c r="V3" s="3">
+        <v>365.01677230000001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>396.49659059999999</v>
+      </c>
+      <c r="X3" s="3">
+        <v>425.8190391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>539</v>
+      </c>
+      <c r="F4" s="3">
+        <v>598</v>
+      </c>
+      <c r="G4" s="3">
+        <v>660</v>
+      </c>
+      <c r="H4" s="3">
+        <v>717</v>
+      </c>
+      <c r="I4" s="3">
+        <v>748</v>
+      </c>
+      <c r="J4" s="3">
+        <v>793</v>
+      </c>
+      <c r="K4" s="3">
+        <v>868.6</v>
+      </c>
+      <c r="L4" s="3">
+        <v>953.9</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1113</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1203.5999999999999</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1216.5999999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1270.5999999999999</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1290.2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1291.3</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1289.5</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1289.0999999999999</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1300.7</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1321.3</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1362.6</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1421.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>275.58632399999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>305.752545</v>
+      </c>
+      <c r="G5" s="3">
+        <v>337.45264159999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>366.59627879999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>382.44632710000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>405.45446179999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>444.10812800000002</v>
+      </c>
+      <c r="L5" s="3">
+        <v>487.72132549999998</v>
+      </c>
+      <c r="M5" s="3">
+        <v>569.06786380000005</v>
+      </c>
+      <c r="N5" s="3">
+        <v>615.39090820000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>622.03770269999995</v>
+      </c>
+      <c r="P5" s="3">
+        <v>649.64746419999994</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>659.66878510000004</v>
+      </c>
+      <c r="R5" s="3">
+        <v>660.23120619999997</v>
+      </c>
+      <c r="S5" s="3">
+        <v>659.31088079999995</v>
+      </c>
+      <c r="T5" s="3">
+        <v>659.10636409999995</v>
+      </c>
+      <c r="U5" s="3">
+        <v>665.03734989999998</v>
+      </c>
+      <c r="V5" s="3">
+        <v>675.56996260000005</v>
+      </c>
+      <c r="W5" s="3">
+        <v>696.68631730000004</v>
+      </c>
+      <c r="X5" s="3">
+        <v>726.69915070000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>372</v>
+      </c>
+      <c r="F6" s="3">
+        <v>409</v>
+      </c>
+      <c r="G6" s="3">
+        <v>446</v>
+      </c>
+      <c r="H6" s="3">
+        <v>484</v>
+      </c>
+      <c r="I6" s="3">
+        <v>505</v>
+      </c>
+      <c r="J6" s="3">
+        <v>535</v>
+      </c>
+      <c r="K6" s="3">
+        <v>585.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>644.5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>751.3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>790.1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>798.3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>815.9</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>826</v>
+      </c>
+      <c r="R6" s="3">
+        <v>827</v>
+      </c>
+      <c r="S6" s="3">
+        <v>830.6</v>
+      </c>
+      <c r="T6" s="3">
+        <v>830.25</v>
+      </c>
+      <c r="U6" s="3">
+        <v>837.9</v>
+      </c>
+      <c r="V6" s="3">
+        <v>850.9</v>
+      </c>
+      <c r="W6" s="3">
+        <v>878.8</v>
+      </c>
+      <c r="X6" s="3">
+        <v>920.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190.20057980000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>209.11837940000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>228.036179</v>
+      </c>
+      <c r="H7" s="3">
+        <v>247.4652705</v>
+      </c>
+      <c r="I7" s="3">
+        <v>258.20240000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>273.54115639999998</v>
+      </c>
+      <c r="K7" s="3">
+        <v>299.36139639999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>329.5276174</v>
+      </c>
+      <c r="M7" s="3">
+        <v>384.13359029999998</v>
+      </c>
+      <c r="N7" s="3">
+        <v>403.97171530000003</v>
+      </c>
+      <c r="O7" s="3">
+        <v>408.16430880000001</v>
+      </c>
+      <c r="P7" s="3">
+        <v>417.16304589999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>422.32709390000002</v>
+      </c>
+      <c r="R7" s="3">
+        <v>422.8383857</v>
+      </c>
+      <c r="S7" s="3">
+        <v>424.6790365</v>
+      </c>
+      <c r="T7" s="3">
+        <v>424.50008439999999</v>
+      </c>
+      <c r="U7" s="3">
+        <v>428.41146730000003</v>
+      </c>
+      <c r="V7" s="3">
+        <v>435.0582617</v>
+      </c>
+      <c r="W7" s="3">
+        <v>449.32330519999999</v>
+      </c>
+      <c r="X7" s="3">
+        <v>470.8486934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3">
+        <v>193</v>
+      </c>
+      <c r="K8" s="3">
+        <v>201</v>
+      </c>
+      <c r="L8" s="3">
+        <v>206</v>
+      </c>
+      <c r="M8" s="3">
+        <v>221</v>
+      </c>
+      <c r="N8" s="3">
+        <v>269</v>
+      </c>
+      <c r="O8" s="3">
+        <v>317</v>
+      </c>
+      <c r="P8" s="3">
+        <v>392</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>383</v>
+      </c>
+      <c r="R8" s="3">
+        <v>386</v>
+      </c>
+      <c r="S8" s="3">
+        <v>403</v>
+      </c>
+      <c r="T8" s="3">
+        <v>415</v>
+      </c>
+      <c r="U8" s="3">
+        <v>422</v>
+      </c>
+      <c r="V8" s="3">
+        <v>431</v>
+      </c>
+      <c r="W8" s="3">
+        <v>453</v>
+      </c>
+      <c r="X8" s="3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="3">
+        <v>193</v>
+      </c>
+      <c r="K9" s="3">
+        <v>201</v>
+      </c>
+      <c r="L9" s="3">
+        <v>206</v>
+      </c>
+      <c r="M9" s="3">
+        <v>221</v>
+      </c>
+      <c r="N9" s="3">
+        <v>269</v>
+      </c>
+      <c r="O9" s="3">
+        <v>317</v>
+      </c>
+      <c r="P9" s="3">
+        <v>392</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>383</v>
+      </c>
+      <c r="R9" s="3">
+        <v>386</v>
+      </c>
+      <c r="S9" s="3">
+        <v>403</v>
+      </c>
+      <c r="T9" s="3">
+        <v>415</v>
+      </c>
+      <c r="U9" s="3">
+        <v>422</v>
+      </c>
+      <c r="V9" s="3">
+        <v>431</v>
+      </c>
+      <c r="W9" s="3">
+        <v>453</v>
+      </c>
+      <c r="X9" s="3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3">
+        <v>177</v>
+      </c>
+      <c r="K10" s="3">
+        <v>184</v>
+      </c>
+      <c r="L10" s="3">
+        <v>188</v>
+      </c>
+      <c r="M10" s="3">
+        <v>202</v>
+      </c>
+      <c r="N10" s="3">
+        <v>246</v>
+      </c>
+      <c r="O10" s="3">
+        <v>288</v>
+      </c>
+      <c r="P10" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>348</v>
+      </c>
+      <c r="R10" s="3">
+        <v>351</v>
+      </c>
+      <c r="S10" s="3">
+        <v>365</v>
+      </c>
+      <c r="T10" s="3">
+        <v>376</v>
+      </c>
+      <c r="U10" s="3">
+        <v>382</v>
+      </c>
+      <c r="V10" s="3">
+        <v>390</v>
+      </c>
+      <c r="W10" s="3">
+        <v>409</v>
+      </c>
+      <c r="X10" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3">
+        <v>177</v>
+      </c>
+      <c r="K11" s="3">
+        <v>184</v>
+      </c>
+      <c r="L11" s="3">
+        <v>188</v>
+      </c>
+      <c r="M11" s="3">
+        <v>202</v>
+      </c>
+      <c r="N11" s="3">
+        <v>246</v>
+      </c>
+      <c r="O11" s="3">
+        <v>288</v>
+      </c>
+      <c r="P11" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>348</v>
+      </c>
+      <c r="R11" s="3">
+        <v>351</v>
+      </c>
+      <c r="S11" s="3">
+        <v>365</v>
+      </c>
+      <c r="T11" s="3">
+        <v>376</v>
+      </c>
+      <c r="U11" s="3">
+        <v>382</v>
+      </c>
+      <c r="V11" s="3">
+        <v>390</v>
+      </c>
+      <c r="W11" s="3">
+        <v>409</v>
+      </c>
+      <c r="X11" s="3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>407.9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="G12" s="3">
+        <v>691.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>890.8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1103.0999999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1318.7</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1697.1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2065</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2529.6999999999998</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2747.6</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2971.7</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3042.2</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3386.2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3674.2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4089.7</v>
+      </c>
+      <c r="T12" s="3">
+        <v>4538.3999999999996</v>
+      </c>
+      <c r="U12" s="3">
+        <v>4997.8</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5587.4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>6268</v>
+      </c>
+      <c r="X12" s="3">
+        <v>7233.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>35.486536999999998</v>
+      </c>
+      <c r="F13" s="3">
+        <v>47.180208100000002</v>
+      </c>
+      <c r="G13" s="3">
+        <v>53.881577399999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>56.5935846</v>
+      </c>
+      <c r="I13" s="3">
+        <v>71.963519199999993</v>
+      </c>
+      <c r="J13" s="3">
+        <v>84.005402000000004</v>
+      </c>
+      <c r="K13" s="3">
+        <v>102.9056865</v>
+      </c>
+      <c r="L13" s="3">
+        <v>124.4080826</v>
+      </c>
+      <c r="M13" s="3">
+        <v>165.43069399999999</v>
+      </c>
+      <c r="N13" s="3">
+        <v>176.981346</v>
+      </c>
+      <c r="O13" s="3">
+        <v>181.20674410000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>186.2164793</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>217.57736199999999</v>
+      </c>
+      <c r="R13" s="3">
+        <v>219.69493130000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>219.49753380000001</v>
+      </c>
+      <c r="T13" s="3">
+        <v>217.16860030000001</v>
+      </c>
+      <c r="U13" s="3">
+        <v>226.6082667</v>
+      </c>
+      <c r="V13" s="3">
+        <v>268.26129959999997</v>
+      </c>
+      <c r="W13" s="3">
+        <v>315.86055370000003</v>
+      </c>
+      <c r="X13" s="3">
+        <v>367.67628509999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2553.6</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2832.7</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3072.2</v>
+      </c>
+      <c r="S14" s="3">
+        <v>3398.9</v>
+      </c>
+      <c r="T14" s="3">
+        <v>3751.6</v>
+      </c>
+      <c r="U14" s="3">
+        <v>4102.8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>4563.8999999999996</v>
+      </c>
+      <c r="W14" s="3">
+        <v>5141.8999999999996</v>
+      </c>
+      <c r="X14" s="3">
+        <v>6010.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="3">
+        <v>156.30872439999999</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>182.0126966</v>
+      </c>
+      <c r="R15" s="3">
+        <v>183.69897330000001</v>
+      </c>
+      <c r="S15" s="3">
+        <v>182.42173450000001</v>
+      </c>
+      <c r="T15" s="3">
+        <v>179.5191523</v>
+      </c>
+      <c r="U15" s="3">
+        <v>186.02753139999999</v>
+      </c>
+      <c r="V15" s="3">
+        <v>219.12119150000001</v>
+      </c>
+      <c r="W15" s="3">
+        <v>259.11349410000003</v>
+      </c>
+      <c r="X15" s="3">
+        <v>305.48284289999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>